--- a/tech_management/Develop_Lifecycle.xlsx
+++ b/tech_management/Develop_Lifecycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliang\development\github\laolang_tutorials\tech_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3790ADBB-2C28-4B58-BD1A-91B3E36D4AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F94B61-4C95-4CC9-A95D-DB683FA153C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,9 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -273,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,29 +571,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -701,13 +701,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -775,16 +775,16 @@
       <c r="C23" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -857,10 +857,10 @@
       <c r="D31" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -868,7 +868,7 @@
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -876,7 +876,7 @@
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>50</v>
       </c>
     </row>
